--- a/Dictionaries/BPHIGH6.xlsx
+++ b/Dictionaries/BPHIGH6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{0E5EE47E-F995-47F1-BBEB-D758F91F16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{489819B8-3B90-422F-8AF9-D6AB29A3ED7E}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{0E5EE47E-F995-47F1-BBEB-D758F91F16B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D3527B2-87E4-4559-8A97-6770BBC7A03F}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{D015A75D-EDBE-4D28-9368-9B4385D5BFDC}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{D015A75D-EDBE-4D28-9368-9B4385D5BFDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>BPHIGH6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Value</t>
   </si>
@@ -311,37 +308,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -359,6 +356,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03CCEDE2-086B-41DE-AB35-1C0D6917DD18}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,120 +693,115 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>255182</v>
+      </c>
+      <c r="D2" s="11">
+        <v>58.89</v>
+      </c>
+      <c r="E2" s="13">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="9">
-        <v>255182</v>
-      </c>
-      <c r="D3" s="11">
-        <v>58.89</v>
-      </c>
-      <c r="E3" s="13">
-        <v>65.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="14"/>
+      <c r="C4" s="9">
+        <v>176222</v>
+      </c>
+      <c r="D4" s="11">
+        <v>40.67</v>
+      </c>
+      <c r="E4" s="13">
+        <v>34.28</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="9">
-        <v>176222</v>
-      </c>
-      <c r="D5" s="11">
-        <v>40.67</v>
-      </c>
-      <c r="E5" s="13">
-        <v>34.28</v>
-      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="18"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>9</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1919</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.44</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="9">
-        <v>1919</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0.44</v>
-      </c>
-      <c r="E7" s="13">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
